--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3810617.462112471</v>
+        <v>3808729.88059607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>571556.6475807208</v>
+        <v>108476.3374297768</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>350.4192841891009</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.0105115420274</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>349.3640271152317</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>151.5775233399904</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>62.34212692452513</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.714056408044396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>48.31602096867644</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.50096938092101</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>216.4561158141379</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>75.06705067831054</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>142.5860247318359</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750031</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>126.5538980153436</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.1799067711599</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>115.2165502573727</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>95.02525064967628</v>
+        <v>116.4423466534184</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>42.66059551718553</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523553</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.6587318214399</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,55 +4325,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,25 +4425,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1327.013560149308</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>958.0510432088963</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>599.7853446021459</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>213.9970920039016</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>207.0515912546982</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.013560149308</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>724.3774120770964</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>724.3774120770964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y7" t="n">
-        <v>724.3774120770964</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>450.8106681794958</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,22 +5030,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,10 +5054,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>829.3628462796264</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>171.4604948753576</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>171.4604948753576</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>620.242624916905</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188877</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>171.4604948753576</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2559.603604913722</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2559.603604913722</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.2737293315</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1280.2737293315</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>990.8565592945396</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X16" t="n">
-        <v>762.8670083965222</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.325632214049</v>
+        <v>967.8959737492387</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980063</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>414.0663679705858</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,19 +5908,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
         <v>1283.483062980063</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273983</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904376</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>554.6108700904376</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729188</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>463.2137177573978</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>783.5490372870996</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944149</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>246.893764966508</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.460813324402</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>982.3321745379599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>643.8194987924323</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>415.8299478944149</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8299478944149</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>381.3300194168668</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>1149.698165809328</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N27" t="n">
-        <v>1954.109744073479</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527472</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2339.460577419557</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.6866369260349</v>
+        <v>439.5324299542219</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794988</v>
+        <v>439.5324299542219</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485339</v>
+        <v>439.5324299542219</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475116</v>
+        <v>347.3802016531997</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309717</v>
+        <v>304.28869102978</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>191.8742346309716</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933505</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662002</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737486</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.6804289818961</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.4517433652497</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749038</v>
+        <v>565.4200295030906</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>381.3300194168667</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M33" t="n">
-        <v>1149.698165809328</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>1954.109744073479</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,13 +7111,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,25 +7160,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.893885873787</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>111.0168333849121</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>111.0168333849121</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>340.9799392532613</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>661.315258782963</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>330.3033909542242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>193.8604492023005</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,10 +10920,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>75.11450363729135</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>69.78123658443945</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.6426047107266</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>109.5516185919921</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338615</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>92.03075533675127</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0.4355662470524067</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.3310108010166</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>130.6844047393609</v>
+        <v>109.2673087356188</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>47.55719587718846</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.7226649020978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541055</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541052</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691597.6334869594</v>
+        <v>691597.6334869595</v>
       </c>
     </row>
     <row r="12">
@@ -26317,16 +26317,16 @@
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="F2" t="n">
         <v>703852.3075278758</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278758</v>
@@ -26335,25 +26335,25 @@
         <v>703852.3075278758</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278756</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
         <v>732279.847221485</v>
       </c>
       <c r="L2" t="n">
+        <v>738937.5928778562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>738937.5928778566</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778563</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>738937.5928778562</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.592877856</v>
-      </c>
-      <c r="O2" t="n">
-        <v>738937.5928778563</v>
-      </c>
       <c r="P2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778565</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758888</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758824</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477248</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
       <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,25 +26482,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72948.50358071849</v>
+        <v>-72948.50358071836</v>
       </c>
       <c r="C6" t="n">
         <v>517019.3756338262</v>
       </c>
       <c r="D6" t="n">
-        <v>517019.375633826</v>
+        <v>517019.3756338264</v>
       </c>
       <c r="E6" t="n">
-        <v>85917.15141168713</v>
+        <v>85819.69228571485</v>
       </c>
       <c r="F6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="G6" t="n">
-        <v>611077.1878885834</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="H6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="I6" t="n">
-        <v>611077.1878885833</v>
+        <v>610979.7287626112</v>
       </c>
       <c r="J6" t="n">
-        <v>434653.9686959902</v>
+        <v>434556.5095700182</v>
       </c>
       <c r="K6" t="n">
-        <v>572536.6171836441</v>
+        <v>572518.1234457095</v>
       </c>
       <c r="L6" t="n">
         <v>607672.9993250677</v>
       </c>
       <c r="M6" t="n">
-        <v>483214.8908920973</v>
+        <v>483214.8908920978</v>
       </c>
       <c r="N6" t="n">
-        <v>618015.9061259342</v>
+        <v>618015.9061259346</v>
       </c>
       <c r="O6" t="n">
-        <v>618015.9061259346</v>
+        <v>618015.9061259344</v>
       </c>
       <c r="P6" t="n">
-        <v>573853.3008230887</v>
+        <v>573853.3008230889</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26756,13 +26756,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>31.51108588316089</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>35.23045717538565</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15.9088646557758</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>262.2066466808046</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4898532574122</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.8705969440504</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>333.6143491035854</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31379,13 +31379,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,28 +31841,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>92.21452536007962</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32078,10 +32078,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32318,10 +32318,10 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>64.14576305427141</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467034</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
@@ -32330,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32470,10 +32470,10 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
@@ -32549,25 +32549,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>220.9982683546634</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,13 +32792,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10.78379835447015</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>54.69678998811293</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>320.3934755282637</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>148.0734588039824</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,19 +33497,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>54.69678998811281</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33661,7 +33661,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565519</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>23.85840434223292</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33980,19 +33980,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>148.5278971900336</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>14.6857245834561</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>324.5004908836646</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>187.7071465097798</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
@@ -35738,16 +35738,16 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>53.87867511627896</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>296.4317285778564</v>
       </c>
       <c r="M18" t="n">
-        <v>536.198277674685</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629105</v>
+        <v>544.569298182645</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>243.0697638780551</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>286.9827555116979</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>668.3941377884839</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412279</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043202</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>286.9827555116978</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>507.421436232991</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>275.124479174518</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>472.0989270180152</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>13.93913325719824</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>425.821533174629</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
